--- a/documentation/LagIncreaseTa.xlsx
+++ b/documentation/LagIncreaseTa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD9E252-8552-294F-8048-7DE8C467F54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D98C475-0D7C-444B-9C4C-7507999562BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" activeTab="1" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3928F802-EB34-9145-958F-C63F376B599D}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K16"/>
     </sheetView>
   </sheetViews>
@@ -642,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC75D197-29FF-934F-98FE-D0089C90F70A}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K16"/>
     </sheetView>
   </sheetViews>

--- a/documentation/LagIncreaseTa.xlsx
+++ b/documentation/LagIncreaseTa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D98C475-0D7C-444B-9C4C-7507999562BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF12385C-AA94-AB40-A58B-BA11C4B3AB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" activeTab="1" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3928F802-EB34-9145-958F-C63F376B599D}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K16"/>
     </sheetView>
   </sheetViews>
@@ -642,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC75D197-29FF-934F-98FE-D0089C90F70A}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K16"/>
     </sheetView>
   </sheetViews>

--- a/documentation/LagIncreaseTa.xlsx
+++ b/documentation/LagIncreaseTa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA89D95-0F49-8F42-B4E0-20E2840FD32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEACB8E7-BBAF-4D47-87C1-EB3D84B99B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="2" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K16" sqref="B1:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3928F802-EB34-9145-958F-C63F376B599D}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K16"/>
     </sheetView>
   </sheetViews>
@@ -740,7 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F184CFBD-7775-BE40-90B7-29E2A97A6AA4}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K16"/>
     </sheetView>
   </sheetViews>

--- a/documentation/LagIncreaseTa.xlsx
+++ b/documentation/LagIncreaseTa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEACB8E7-BBAF-4D47-87C1-EB3D84B99B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F81D04-FDC1-1A43-9BC1-94906E2F5441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="2" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3928F802-EB34-9145-958F-C63F376B599D}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K16"/>
     </sheetView>
   </sheetViews>
@@ -740,7 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F184CFBD-7775-BE40-90B7-29E2A97A6AA4}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K16"/>
     </sheetView>
   </sheetViews>

--- a/documentation/LagIncreaseTa.xlsx
+++ b/documentation/LagIncreaseTa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
@@ -26,7 +26,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -99,6 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -444,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DA2B74-2347-0347-86D2-F6AB4B814569}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="B1:K16"/>
@@ -452,87 +453,567 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>52.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>54.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>139.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>43.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>54.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>133.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>54.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>43.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>68.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>54.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>54.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>72.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>52.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>52.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>165.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>128.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>124.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>154.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>126.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>148.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>148.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>156.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>112.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>140.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>257.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>42.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>37.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>41.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>186.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>67.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>42.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>64.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>42.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>65.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>64.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>43.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>44.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>63.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>103.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>112.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>46.0</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3928F802-EB34-9145-958F-C63F376B599D}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K16"/>
@@ -550,87 +1031,567 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>313.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>350.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>993.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>899.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>551.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>667.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>1174.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>865.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>1180.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>930.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>1245.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>1551.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>921.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>1869.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>1239.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>312.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>1560.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>1329.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>923.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>918.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>2180.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>1031.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>617.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>1550.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>606.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>935.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>1574.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>921.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>1856.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>1978.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>1562.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>1229.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>1539.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>915.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>905.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>940.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>937.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>909.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>602.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>1880.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>1792.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>1174.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>1042.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>1056.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>721.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>1982.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>1019.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>1038.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>1957.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>1666.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>1964.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>1247.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>924.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>1536.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>1356.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>1255.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>1258.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>610.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>911.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>2308.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>1882.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>1244.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>1872.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>923.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>908.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>1244.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>922.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>1243.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>1252.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>2194.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>2303.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>1254.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>1239.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>1244.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>929.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>933.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>2176.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>598.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>911.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>1542.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>1550.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>1227.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>1552.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>918.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>922.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>2536.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>608.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>1248.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>1576.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>2007.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>1654.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>1235.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>1243.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>1548.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>589.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>927.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>934.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>911.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>1031.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>1386.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>316.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>921.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>616.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>931.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>933.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>1687.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>598.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>592.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>906.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>942.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>1338.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>2001.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>924.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>1236.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>919.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>1886.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>1902.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>1875.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>1581.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>1343.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>1561.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>602.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>1870.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>942.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>1228.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>1878.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>1052.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>1232.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>904.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>1347.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>1865.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>1881.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>1223.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>1223.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>1561.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>2497.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>1907.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>1040.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>1235.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>922.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>1230.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>932.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>1049.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>931.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>608.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>1896.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>924.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>601.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>926.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>1351.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>1562.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>1226.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>1546.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>926.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>1545.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>2198.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>611.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>1662.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>1624.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>925.0</v>
       </c>
     </row>
   </sheetData>
@@ -640,7 +1601,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC75D197-29FF-934F-98FE-D0089C90F70A}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K16"/>
@@ -648,87 +1609,567 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>72.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>82.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>86.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>82.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>86.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>126.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>115.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>227.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>141.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>149.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>146.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>149.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>84.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>67.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>142.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>147.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>241.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>83.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>123.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>146.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>86.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>128.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>158.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>75.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>200.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>221.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>171.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>192.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>257.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>195.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>197.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>353.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>155.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>155.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>72.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>134.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>114.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>190.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>127.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>252.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>274.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>70.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>72.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>119.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>116.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>120.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>124.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>124.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>70.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>72.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>122.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>124.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>67.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>121.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>115.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>132.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>70.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>68.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>121.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>124.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>127.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>70.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>126.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>133.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>70.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>72.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>67.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>116.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>124.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>69.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>127.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>119.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>76.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>72.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>68.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>124.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>81.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>125.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>81.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>70.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>74.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>67.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>78.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>67.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>78.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>72.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>87.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>76.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>87.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>78.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>72.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>81.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>69.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>71.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>78.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>74.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>83.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>74.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>82.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>73.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>87.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>78.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>75.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>82.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>76.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>76.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>76.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>83.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>81.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>74.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>81.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>83.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>77.0</v>
       </c>
     </row>
   </sheetData>
@@ -738,7 +2179,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F184CFBD-7775-BE40-90B7-29E2A97A6AA4}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K16"/>
@@ -746,87 +2187,567 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>107.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>179.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>163.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>107.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>116.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>96.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>114.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>111.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>272.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>197.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>114.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>109.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>181.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>104.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>437.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>182.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>303.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>103.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>99.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>177.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>190.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>111.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>105.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>117.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>105.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>111.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>190.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>183.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>194.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>116.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>174.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>104.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>183.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>105.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>208.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>182.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>179.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>219.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>291.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>219.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>188.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>308.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>224.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>309.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>307.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>102.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>104.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>192.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>99.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>183.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>270.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>275.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>287.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>391.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>105.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>196.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>199.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>300.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>109.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>114.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>388.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>111.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>293.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>103.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>205.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>196.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>115.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>212.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>281.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>117.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>181.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>114.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>319.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>116.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>302.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>102.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>108.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>194.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>306.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>193.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>107.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>102.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>103.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>217.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>106.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>115.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>198.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>116.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>420.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>109.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>109.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>204.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>112.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>411.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>309.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>115.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>112.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>208.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>198.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>112.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>183.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>193.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>116.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>305.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>114.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>286.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>206.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>411.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>102.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>114.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>176.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>109.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>290.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>305.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>202.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>201.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>184.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>370.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>112.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>257.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>111.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>191.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>104.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>112.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>104.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>194.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>196.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>296.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>194.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>111.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>184.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>267.0</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +2757,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF3B589-BCBC-E848-B688-E0E7B328F5A7}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K16"/>
@@ -844,87 +2765,567 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="29.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>139.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>241.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>370.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>142.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>292.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>238.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>183.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>145.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>265.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>131.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>239.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>257.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>395.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>139.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>243.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>141.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>140.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>256.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>138.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>138.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>145.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>263.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>139.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>260.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>241.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>396.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>280.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>136.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>382.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>234.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>283.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>143.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>404.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>142.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>260.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>261.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>366.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>488.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>334.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>320.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>372.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>208.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>323.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>251.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>632.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>376.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>257.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>131.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>125.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>643.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>367.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>251.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>254.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>362.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>136.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>246.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>454.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>256.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>256.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>144.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>627.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>253.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>264.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>138.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>137.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>239.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>134.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>263.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>262.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>259.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>127.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>267.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>242.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>252.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>145.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>378.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>129.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>146.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>246.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>142.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>250.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>131.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>143.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>260.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>241.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>547.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>257.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>373.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>239.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>259.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>393.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>259.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>141.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>389.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>142.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>249.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>407.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>129.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>386.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>270.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>141.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>266.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>136.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>558.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>255.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>138.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>399.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>267.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>362.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>390.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>142.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>391.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>132.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>494.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>264.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>363.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>134.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>262.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>145.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>264.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>235.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>146.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>254.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>133.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>130.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>257.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>243.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>130.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>261.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>141.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>246.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>246.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>140.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>463.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>130.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>142.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>258.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>385.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>136.0</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +3335,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D9CEC-66D4-CB40-88FD-1DC1524A2B91}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K16"/>
@@ -942,87 +3343,567 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>193.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>160.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>258.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>166.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>160.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>167.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>172.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>419.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>170.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>312.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>332.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>316.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>401.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>311.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>172.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>305.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>313.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>293.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>320.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>316.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>315.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>507.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>301.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>163.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>183.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>298.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>488.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>339.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>162.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>303.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>316.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>316.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>478.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>325.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>427.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>252.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>286.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>385.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>289.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>393.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>422.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>443.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>583.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>433.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>665.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>471.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>590.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>478.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>468.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>633.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>469.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>473.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>317.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>629.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>337.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>470.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>318.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>566.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>468.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>336.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>291.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>304.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>609.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>173.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>313.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>308.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>170.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>328.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>487.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>493.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>311.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>484.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>651.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>510.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>295.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>457.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>335.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>497.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>320.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>321.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>176.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>464.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>654.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>157.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>301.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>173.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>307.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>313.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>314.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>168.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>660.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>299.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>506.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>321.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>317.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>322.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>319.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>487.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>303.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>495.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>483.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>415.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>309.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>468.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>330.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>318.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>168.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>301.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>315.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>313.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>577.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>316.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>174.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>319.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>315.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>175.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>314.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>318.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>162.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>768.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>746.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>324.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>174.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>550.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>319.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>304.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>173.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>316.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>496.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>164.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>315.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>292.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>305.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>580.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>473.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>467.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>666.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>318.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>498.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>325.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>484.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>156.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>315.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>523.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>292.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>488.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>638.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>323.0</v>
       </c>
     </row>
   </sheetData>
@@ -1032,7 +3913,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8571A82-077D-1047-9A9A-C6405F901D7C}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K16"/>
@@ -1040,87 +3921,567 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="29.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>359.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>446.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>187.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>322.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>384.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>382.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>223.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>373.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>591.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>954.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>550.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>191.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>205.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>204.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>398.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>566.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>768.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>359.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>378.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>664.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>376.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>740.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>571.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>584.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>372.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>559.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>367.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>774.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>204.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>381.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>582.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>571.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>854.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>368.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>798.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>447.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>448.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>315.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>681.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>856.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>461.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>689.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>279.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>454.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>858.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>558.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>186.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>747.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>573.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>369.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>1027.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>569.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>373.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>559.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>1142.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>565.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>190.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>456.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>560.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>570.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>369.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>583.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>874.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>769.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>778.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>784.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>574.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>353.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>187.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>710.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>195.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>645.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>961.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>572.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>383.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>385.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>780.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>781.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>559.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>576.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>556.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>584.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>194.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>378.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>561.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>361.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>576.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>372.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>579.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>349.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>191.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>550.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>379.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>189.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>942.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>666.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>353.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>358.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>362.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>583.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>193.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>665.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>198.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>194.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>380.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>192.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>195.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>374.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>361.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>447.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>946.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>556.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>199.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>355.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>194.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>563.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>768.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>583.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>568.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>780.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>197.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>370.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>366.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>189.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>775.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>976.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>572.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>375.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>584.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>496.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>478.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>487.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>361.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>375.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>778.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>205.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>376.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>577.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>377.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>769.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>773.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>572.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>187.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>375.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>360.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>383.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>386.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>745.0</v>
       </c>
     </row>
   </sheetData>
@@ -1130,7 +4491,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2211F22-008C-1644-B1CF-9653FAFDCEE3}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K16"/>
@@ -1138,87 +4499,567 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>253.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>345.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>605.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>601.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>903.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>277.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>329.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>221.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>420.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>665.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>680.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>426.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>671.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>428.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>234.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>232.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>672.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>663.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>667.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>643.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>449.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>234.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>657.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>651.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>435.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>221.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>657.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>911.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>644.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>425.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>671.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>422.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>660.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>220.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>228.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>232.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>773.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>852.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>539.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>320.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>740.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>525.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>1009.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>777.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>781.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>922.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>306.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>1127.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>897.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>651.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>1113.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>1124.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>1112.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>649.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>1563.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>1365.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>851.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>1131.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>880.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>875.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>900.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>670.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>893.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>759.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>761.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>671.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>666.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>1192.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>653.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>888.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>883.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>216.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>669.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>652.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>227.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>418.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>667.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>1299.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>661.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>653.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>953.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>219.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>422.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>437.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>770.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>217.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>881.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>889.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>235.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>221.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>1338.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>430.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>443.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>649.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>429.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>222.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>647.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>675.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>751.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>656.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>424.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>429.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>880.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>1088.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>785.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>642.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>420.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>678.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>676.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>426.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>664.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>433.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>887.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>660.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>652.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>665.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>658.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>1119.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>660.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>641.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>435.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>444.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>423.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>437.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>648.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>668.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>666.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>444.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>655.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>228.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>664.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>874.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>430.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>229.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>639.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>659.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>652.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>449.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>635.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>907.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>427.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>645.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>447.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>671.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>643.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>653.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>418.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>903.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>442.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>1209.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>434.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>1404.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>880.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>668.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>660.0</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +5069,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41FBB65-C429-C244-99AD-FC9BC4DDA385}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K17"/>
@@ -1236,87 +5077,567 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>612.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>540.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>293.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>263.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>331.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>263.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>274.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>697.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>270.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>806.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>1009.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>489.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>489.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>728.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>1286.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>758.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>720.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>1347.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>731.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>737.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>1711.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>1007.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>496.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>1028.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>1254.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>1401.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>757.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>1255.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>758.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>750.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>1016.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>745.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>485.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>727.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>1003.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>1526.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>761.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>981.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>987.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>744.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>1068.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>1353.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>548.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>1099.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>1125.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>1085.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>917.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>963.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>1138.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>1459.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>496.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>866.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>1017.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>1387.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>754.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>744.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>993.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>1260.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>1515.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>1285.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>748.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>495.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>751.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>727.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>481.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>749.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>1013.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>987.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>1268.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>1248.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>752.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>497.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>1002.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>744.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>764.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>744.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>997.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>264.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>1250.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>2055.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>747.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>729.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>499.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>484.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>1260.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>739.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>483.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>762.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>1024.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>1495.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>1413.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>1011.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>733.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>491.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>1247.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>765.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>742.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>742.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>1435.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>1008.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>1508.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>1347.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>766.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>1008.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>754.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>1008.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>742.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>1110.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>1002.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>738.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>1026.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>1267.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>747.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>993.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>589.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>996.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>737.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>1644.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>1018.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>752.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>1013.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>1527.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>485.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>263.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>997.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>1008.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>1512.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>1514.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>264.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>723.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>1254.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>1716.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>981.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>502.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>1273.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>758.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>1516.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>755.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>742.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>750.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>862.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>1638.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>494.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>491.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>1262.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>995.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>725.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>1248.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>1267.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>1272.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>256.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>1646.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>491.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>473.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>736.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>744.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>1249.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>1510.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>987.0</v>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +5647,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A18CAB7-FF8B-1147-9B60-383C2392EA19}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K16"/>
@@ -1334,87 +5655,567 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>843.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>817.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>817.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>405.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>966.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>992.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>824.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>1390.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>820.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>1482.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>545.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>843.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>823.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>543.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>1085.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>848.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>544.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>1439.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>841.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>1187.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>546.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>1246.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>852.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>1224.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>822.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>1148.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>1132.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>1130.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>825.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>1111.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>541.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>544.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>838.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>546.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>1127.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>1442.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>935.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>1109.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>531.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>1525.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>1788.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>1518.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>1211.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>1234.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>951.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>1199.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>898.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>1502.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>945.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>1524.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>1424.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>1118.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>1113.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>1127.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>1509.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>845.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>1420.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>1130.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>955.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>1104.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>840.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>1129.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>1420.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>546.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>1814.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>1136.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>828.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>844.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>1110.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>1246.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>833.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>543.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>1118.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>1126.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>1387.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>809.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>1232.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>564.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>1418.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>1106.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>846.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>1973.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>842.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>544.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>821.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>665.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>541.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>828.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>822.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>923.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>832.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>1692.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>1412.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>1394.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>1134.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>550.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>1127.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>1714.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>936.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>849.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>1128.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>1408.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>833.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>835.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>820.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>1135.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>546.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>833.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>543.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>1696.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>537.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>828.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>831.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>557.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>545.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>1402.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>1392.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>849.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>1398.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>1121.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>1135.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>1700.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>838.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>1119.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>818.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>1132.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>845.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>843.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>542.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>1113.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>555.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>1693.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>837.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>832.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>1416.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>1525.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>545.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>1124.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>833.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>1825.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>1526.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>1118.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>1245.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>1118.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>1425.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>1128.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>1697.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>1136.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>560.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>1413.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>542.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>1126.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>838.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>817.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>1137.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>1138.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>830.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>1121.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>828.0</v>
       </c>
     </row>
   </sheetData>
